--- a/results/2080Ti/SyntheticWorkload.xlsx
+++ b/results/2080Ti/SyntheticWorkload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\GPUMemManSurvey\results\2080Ti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6AFEAE-04EE-4561-875D-A01E87D087B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8C78E-3683-40FA-B785-D2BF3907C758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3225" windowWidth="25830" windowHeight="16650" xr2:uid="{12DC22ED-AE17-4780-B651-A931B852BD31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{12DC22ED-AE17-4780-B651-A931B852BD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Data 64" sheetId="1" r:id="rId1"/>
@@ -219,15 +219,15 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -13104,7 +13104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B928B648-DFCC-47DB-BBA9-338BC02E588C}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -13129,25 +13129,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -14332,25 +14332,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -15462,8 +15462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE46F8-AD8E-47D3-88B8-6DDB64118792}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC40" sqref="AC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15472,131 +15472,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AC1" s="8" t="s">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>16</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>32</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>64</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>128</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>4</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>8</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>16</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>32</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>64</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>128</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>4</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <v>8</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <v>16</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>32</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <v>64</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <v>128</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="5">
         <v>4</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="5">
         <v>8</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="5">
         <v>16</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="5">
         <v>32</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="5">
         <v>64</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="5">
         <v>128</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>65536</v>
       </c>
       <c r="B3">
@@ -15620,13 +15620,13 @@
       <c r="H3">
         <v>1.6891</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>65536</v>
       </c>
       <c r="Q3">
         <v>1.97618</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>65536</v>
       </c>
       <c r="T3">
@@ -15650,7 +15650,7 @@
       <c r="Z3">
         <v>1.98169</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>65536</v>
       </c>
       <c r="AC3">
@@ -15676,7 +15676,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>131072</v>
       </c>
       <c r="B4">
@@ -15700,13 +15700,13 @@
       <c r="H4">
         <v>2.9134500000000001</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>131072</v>
       </c>
       <c r="Q4">
         <v>4.1551400000000003</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>131072</v>
       </c>
       <c r="T4">
@@ -15730,7 +15730,7 @@
       <c r="Z4">
         <v>4.4128400000000001</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <v>131072</v>
       </c>
       <c r="AC4">
@@ -15756,7 +15756,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>262144</v>
       </c>
       <c r="B5">
@@ -15780,13 +15780,13 @@
       <c r="H5">
         <v>5.6140999999999996</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>262144</v>
       </c>
       <c r="Q5">
         <v>8.1216699999999999</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>262144</v>
       </c>
       <c r="T5">
@@ -15810,7 +15810,7 @@
       <c r="Z5">
         <v>8.5259199999999993</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="5">
         <v>262144</v>
       </c>
       <c r="AC5">
@@ -15836,7 +15836,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>524288</v>
       </c>
       <c r="B6">
@@ -15860,13 +15860,13 @@
       <c r="H6">
         <v>10.997400000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>524288</v>
       </c>
       <c r="Q6">
         <v>15.920999999999999</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>524288</v>
       </c>
       <c r="T6">
@@ -15890,7 +15890,7 @@
       <c r="Z6">
         <v>16.502099999999999</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <v>524288</v>
       </c>
       <c r="AC6">
@@ -15916,7 +15916,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1048576</v>
       </c>
       <c r="B7">
@@ -15940,13 +15940,13 @@
       <c r="H7">
         <v>21.755600000000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>1048576</v>
       </c>
       <c r="Q7">
         <v>31.650400000000001</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>1048576</v>
       </c>
       <c r="T7">
@@ -15970,7 +15970,7 @@
       <c r="Z7">
         <v>32.804200000000002</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="5">
         <v>1048576</v>
       </c>
       <c r="AC7">
@@ -15996,131 +15996,131 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="T9" s="8" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="T9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AC9" s="8" t="s">
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AC9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>32</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>64</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>128</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>4</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>8</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>16</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>32</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>64</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>128</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>4</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>8</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>16</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>32</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>64</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>128</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <v>4</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <v>8</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <v>16</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <v>32</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="5">
         <v>64</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="5">
         <v>128</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AI10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>65536</v>
       </c>
       <c r="B11">
@@ -16144,7 +16144,7 @@
       <c r="H11">
         <v>3.08955</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>65536</v>
       </c>
       <c r="K11">
@@ -16168,7 +16168,7 @@
       <c r="Q11">
         <v>1.97113</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>65536</v>
       </c>
       <c r="T11">
@@ -16192,7 +16192,7 @@
       <c r="Z11">
         <v>2.0467599999999999</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="5">
         <v>65536</v>
       </c>
       <c r="AC11">
@@ -16218,7 +16218,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>131072</v>
       </c>
       <c r="B12">
@@ -16242,7 +16242,7 @@
       <c r="H12">
         <v>6.1162900000000002</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>131072</v>
       </c>
       <c r="K12">
@@ -16266,7 +16266,7 @@
       <c r="Q12">
         <v>4.1511500000000003</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>131072</v>
       </c>
       <c r="T12">
@@ -16290,7 +16290,7 @@
       <c r="Z12">
         <v>4.1143000000000001</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <v>131072</v>
       </c>
       <c r="AC12">
@@ -16316,7 +16316,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>262144</v>
       </c>
       <c r="B13">
@@ -16340,7 +16340,7 @@
       <c r="H13">
         <v>11.815200000000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>262144</v>
       </c>
       <c r="K13">
@@ -16364,7 +16364,7 @@
       <c r="Q13">
         <v>8.1254600000000003</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>262144</v>
       </c>
       <c r="T13">
@@ -16388,7 +16388,7 @@
       <c r="Z13">
         <v>8.0389300000000006</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="5">
         <v>262144</v>
       </c>
       <c r="AC13">
@@ -16414,7 +16414,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>524288</v>
       </c>
       <c r="B14">
@@ -16438,7 +16438,7 @@
       <c r="H14">
         <v>23.000699999999998</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>524288</v>
       </c>
       <c r="K14">
@@ -16462,7 +16462,7 @@
       <c r="Q14">
         <v>15.9148</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>524288</v>
       </c>
       <c r="T14">
@@ -16486,7 +16486,7 @@
       <c r="Z14">
         <v>15.8908</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="5">
         <v>524288</v>
       </c>
       <c r="AC14">
@@ -16512,7 +16512,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>1048576</v>
       </c>
       <c r="B15">
@@ -16536,7 +16536,7 @@
       <c r="H15">
         <v>44.915700000000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>1048576</v>
       </c>
       <c r="K15">
@@ -16560,7 +16560,7 @@
       <c r="Q15">
         <v>31.6721</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>1048576</v>
       </c>
       <c r="T15">
@@ -16584,7 +16584,7 @@
       <c r="Z15">
         <v>31.599699999999999</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="5">
         <v>1048576</v>
       </c>
       <c r="AC15">
@@ -16610,131 +16610,131 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="K17" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="T17" s="8" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="T17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AC17" s="8" t="s">
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AC17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>8</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>16</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>32</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>64</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>128</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>4</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>8</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>16</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>32</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>64</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>128</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>4</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>8</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>16</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>32</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>64</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <v>128</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Z18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AC18" s="5">
         <v>4</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="5">
         <v>8</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AE18" s="5">
         <v>16</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF18" s="5">
         <v>32</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="5">
         <v>64</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="5">
         <v>128</v>
       </c>
-      <c r="AI18" s="7" t="s">
+      <c r="AI18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>65536</v>
       </c>
       <c r="B19">
@@ -16758,7 +16758,7 @@
       <c r="H19">
         <v>2.6648399999999999</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>65536</v>
       </c>
       <c r="K19">
@@ -16782,7 +16782,7 @@
       <c r="Q19">
         <v>1.92689</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>65536</v>
       </c>
       <c r="T19">
@@ -16803,7 +16803,7 @@
       <c r="Y19">
         <v>6.5922000000000001</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <v>65536</v>
       </c>
       <c r="AC19">
@@ -16829,7 +16829,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>131072</v>
       </c>
       <c r="B20">
@@ -16853,7 +16853,7 @@
       <c r="H20">
         <v>5.2442000000000002</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>131072</v>
       </c>
       <c r="K20">
@@ -16877,7 +16877,7 @@
       <c r="Q20">
         <v>4.7444199999999999</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>131072</v>
       </c>
       <c r="T20">
@@ -16898,7 +16898,7 @@
       <c r="Y20">
         <v>12.9909</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <v>131072</v>
       </c>
       <c r="AC20">
@@ -16924,7 +16924,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>262144</v>
       </c>
       <c r="B21">
@@ -16948,7 +16948,7 @@
       <c r="H21">
         <v>10.4785</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>262144</v>
       </c>
       <c r="K21">
@@ -16972,7 +16972,7 @@
       <c r="Q21">
         <v>10.013199999999999</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>262144</v>
       </c>
       <c r="T21">
@@ -16993,7 +16993,7 @@
       <c r="Y21">
         <v>26.691500000000001</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AB21" s="5">
         <v>262144</v>
       </c>
       <c r="AC21">
@@ -17019,7 +17019,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>524288</v>
       </c>
       <c r="B22">
@@ -17043,7 +17043,7 @@
       <c r="H22">
         <v>20.940899999999999</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>524288</v>
       </c>
       <c r="K22">
@@ -17067,7 +17067,7 @@
       <c r="Q22">
         <v>19.7362</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>524288</v>
       </c>
       <c r="T22">
@@ -17088,7 +17088,7 @@
       <c r="Y22">
         <v>51.969799999999999</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="5">
         <v>524288</v>
       </c>
       <c r="AC22">
@@ -17114,7 +17114,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>1048576</v>
       </c>
       <c r="B23">
@@ -17138,7 +17138,7 @@
       <c r="H23">
         <v>41.781999999999996</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>1048576</v>
       </c>
       <c r="K23">
@@ -17162,7 +17162,7 @@
       <c r="Q23">
         <v>39.228299999999997</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="5">
         <v>1048576</v>
       </c>
       <c r="T23">
@@ -17183,7 +17183,7 @@
       <c r="Y23">
         <v>100.434</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AB23" s="5">
         <v>1048576</v>
       </c>
       <c r="AC23">
@@ -17209,131 +17209,131 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="K25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="T25" s="8" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="T25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AC25" s="8" t="s">
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AC25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>4</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>8</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>16</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>32</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>64</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>128</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>4</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>8</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>16</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>32</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>64</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>128</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="5">
         <v>4</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="5">
         <v>8</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="5">
         <v>16</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="5">
         <v>32</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="5">
         <v>64</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="5">
         <v>128</v>
       </c>
-      <c r="Z26" s="7" t="s">
+      <c r="Z26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="5">
         <v>4</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AD26" s="5">
         <v>8</v>
       </c>
-      <c r="AE26" s="6">
+      <c r="AE26" s="5">
         <v>16</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AF26" s="5">
         <v>32</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AG26" s="5">
         <v>64</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AH26" s="5">
         <v>128</v>
       </c>
-      <c r="AI26" s="7" t="s">
+      <c r="AI26" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>65536</v>
       </c>
       <c r="B27">
@@ -17357,7 +17357,7 @@
       <c r="H27">
         <v>1.9939899999999999</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>65536</v>
       </c>
       <c r="K27">
@@ -17381,7 +17381,7 @@
       <c r="Q27">
         <v>1.9625900000000001</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="5">
         <v>65536</v>
       </c>
       <c r="T27">
@@ -17405,7 +17405,7 @@
       <c r="Z27">
         <v>2.3214199999999998</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AB27" s="5">
         <v>65536</v>
       </c>
       <c r="AC27">
@@ -17431,7 +17431,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>131072</v>
       </c>
       <c r="B28">
@@ -17455,7 +17455,7 @@
       <c r="H28">
         <v>4.21082</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>131072</v>
       </c>
       <c r="K28">
@@ -17479,7 +17479,7 @@
       <c r="Q28">
         <v>4.6087899999999999</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="5">
         <v>131072</v>
       </c>
       <c r="T28">
@@ -17503,7 +17503,7 @@
       <c r="Z28">
         <v>5.7534299999999998</v>
       </c>
-      <c r="AB28" s="6">
+      <c r="AB28" s="5">
         <v>131072</v>
       </c>
       <c r="AC28">
@@ -17529,7 +17529,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>262144</v>
       </c>
       <c r="B29">
@@ -17553,7 +17553,7 @@
       <c r="H29">
         <v>8.2863699999999998</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>262144</v>
       </c>
       <c r="K29">
@@ -17577,7 +17577,7 @@
       <c r="Q29">
         <v>9.3957999999999995</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="5">
         <v>262144</v>
       </c>
       <c r="T29">
@@ -17601,7 +17601,7 @@
       <c r="Z29">
         <v>11.9489</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB29" s="5">
         <v>262144</v>
       </c>
       <c r="AC29">
@@ -17627,7 +17627,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>524288</v>
       </c>
       <c r="B30">
@@ -17651,7 +17651,7 @@
       <c r="H30">
         <v>16.311699999999998</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>524288</v>
       </c>
       <c r="K30">
@@ -17675,7 +17675,7 @@
       <c r="Q30">
         <v>18.6113</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="5">
         <v>524288</v>
       </c>
       <c r="T30">
@@ -17699,7 +17699,7 @@
       <c r="Z30">
         <v>24.496700000000001</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30" s="5">
         <v>524288</v>
       </c>
       <c r="AC30">
@@ -17725,7 +17725,7 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>1048576</v>
       </c>
       <c r="B31">
@@ -17749,7 +17749,7 @@
       <c r="H31">
         <v>32.476599999999998</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>1048576</v>
       </c>
       <c r="K31">
@@ -17773,7 +17773,7 @@
       <c r="Q31">
         <v>37.259799999999998</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="5">
         <v>1048576</v>
       </c>
       <c r="T31">
@@ -17794,7 +17794,7 @@
       <c r="Y31">
         <v>103.292</v>
       </c>
-      <c r="AB31" s="6">
+      <c r="AB31" s="5">
         <v>1048576</v>
       </c>
       <c r="AC31">
@@ -17820,33 +17820,33 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>16</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="K33" s="9">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="K33" s="8">
         <v>17</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="T33" s="9">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="T33" s="8">
         <v>18</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -19437,24 +19437,24 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>19</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="K53" s="9">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="K53" s="8">
         <v>20</v>
       </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -20528,6 +20528,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K17:Q17"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="K53:Q53"/>
     <mergeCell ref="AC1:AI1"/>
@@ -20544,11 +20549,6 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="T25:Z25"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <conditionalFormatting sqref="B35:I41">
     <cfRule type="colorScale" priority="5">

--- a/results/2080Ti/SyntheticWorkload.xlsx
+++ b/results/2080Ti/SyntheticWorkload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\GPUMemManSurvey\results\2080Ti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E8C78E-3683-40FA-B785-D2BF3907C758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB21541-1FFA-4B08-911B-06CAF67CCAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="4" xr2:uid="{12DC22ED-AE17-4780-B651-A931B852BD31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="6" xr2:uid="{12DC22ED-AE17-4780-B651-A931B852BD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Data 64" sheetId="1" r:id="rId1"/>
@@ -4371,58 +4371,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.3119999999999997E-2</c:v>
+                  <c:v>3.8296299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4037100000000001E-2</c:v>
+                  <c:v>3.36218E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4858199999999999E-2</c:v>
+                  <c:v>3.6853799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1580100000000002E-2</c:v>
+                  <c:v>4.5203199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7249899999999997E-2</c:v>
+                  <c:v>4.8440299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4060199999999998E-2</c:v>
+                  <c:v>5.4807000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10333100000000001</c:v>
+                  <c:v>6.9972500000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.110058</c:v>
+                  <c:v>8.1656300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38050099999999998</c:v>
+                  <c:v>0.11716699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81284599999999996</c:v>
+                  <c:v>0.186117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.72068</c:v>
+                  <c:v>0.31415799999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4536500000000001</c:v>
+                  <c:v>0.59147000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.54955</c:v>
+                  <c:v>1.1223700000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.2924399999999991</c:v>
+                  <c:v>2.1981199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.848700000000001</c:v>
+                  <c:v>4.48604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.811700000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>24.999500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>223.059</c:v>
+                  <c:v>65.721100000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>309.83300000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>634.101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,58 +4550,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.2331499999999999E-2</c:v>
+                  <c:v>3.5115500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3061100000000003E-2</c:v>
+                  <c:v>3.30458E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5989699999999999E-2</c:v>
+                  <c:v>3.5385600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9750399999999998E-2</c:v>
+                  <c:v>3.8154199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7311400000000003E-2</c:v>
+                  <c:v>4.4138200000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3417600000000005E-2</c:v>
+                  <c:v>5.51706E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8542099999999994E-2</c:v>
+                  <c:v>6.2946600000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.107254</c:v>
+                  <c:v>7.8375700000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.348248</c:v>
+                  <c:v>0.10743800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71234900000000001</c:v>
+                  <c:v>0.16972799999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7309000000000001</c:v>
+                  <c:v>0.274532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.14879</c:v>
+                  <c:v>0.50203900000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1590800000000003</c:v>
+                  <c:v>0.94964199999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.360600000000002</c:v>
+                  <c:v>1.87565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153.363</c:v>
+                  <c:v>3.8980100000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116.895</c:v>
+                  <c:v>9.0569000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1772.77</c:v>
+                  <c:v>23.210799999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1370.19</c:v>
+                  <c:v>58.110199999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>263.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>540.91999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7114,16 +7129,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7298677491161449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.1996186423113593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2411961141469336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0283290043290043</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.1699603339056301</c:v>
@@ -8950,16 +8965,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8090010545552202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.3073966631816107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2888757904832313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0218914103476999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.4261923149530626</c:v>
@@ -10266,7 +10281,7 @@
         <c:axId val="639619528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.4"/>
+          <c:max val="3.2"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12656,7 +12671,7 @@
     <sheetView zoomScale="187" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="158" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="158" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12665,10 +12680,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{323F97A3-23DD-4933-A55D-78226A365BEF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="158" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -12677,7 +12692,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12382500" cy="7202365"/>
+    <xdr:ext cx="12675577" cy="7656635"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12710,7 +12725,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12382500" cy="7202365"/>
+    <xdr:ext cx="12675577" cy="7656635"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12743,7 +12758,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8200668" cy="5709906"/>
+    <xdr:ext cx="7742246" cy="5725187"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12776,7 +12791,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9183077" cy="6838462"/>
+    <xdr:ext cx="12681857" cy="7667625"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -14307,8 +14322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5F4FEE-60CE-4DBC-BFA8-9EA167329DEC}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14423,10 +14438,10 @@
         <v>3.2654099999999998E-2</v>
       </c>
       <c r="F3">
-        <v>3.3119999999999997E-2</v>
+        <v>3.8296299999999998E-2</v>
       </c>
       <c r="G3">
-        <v>3.2331499999999999E-2</v>
+        <v>3.5115500000000001E-2</v>
       </c>
       <c r="H3">
         <v>3.2275199999999997E-2</v>
@@ -14476,10 +14491,10 @@
         <v>3.1982700000000003E-2</v>
       </c>
       <c r="F4">
-        <v>3.4037100000000001E-2</v>
+        <v>3.36218E-2</v>
       </c>
       <c r="G4">
-        <v>3.3061100000000003E-2</v>
+        <v>3.30458E-2</v>
       </c>
       <c r="H4">
         <v>3.29869E-2</v>
@@ -14529,10 +14544,10 @@
         <v>3.3356799999999999E-2</v>
       </c>
       <c r="F5">
-        <v>3.4858199999999999E-2</v>
+        <v>3.6853799999999999E-2</v>
       </c>
       <c r="G5">
-        <v>3.5989699999999999E-2</v>
+        <v>3.5385600000000003E-2</v>
       </c>
       <c r="H5">
         <v>3.1775400000000002E-2</v>
@@ -14582,10 +14597,10 @@
         <v>3.6433300000000002E-2</v>
       </c>
       <c r="F6">
-        <v>4.1580100000000002E-2</v>
+        <v>4.5203199999999999E-2</v>
       </c>
       <c r="G6">
-        <v>3.9750399999999998E-2</v>
+        <v>3.8154199999999999E-2</v>
       </c>
       <c r="H6">
         <v>3.2625300000000003E-2</v>
@@ -14635,10 +14650,10 @@
         <v>4.0057000000000002E-2</v>
       </c>
       <c r="F7">
-        <v>4.7249899999999997E-2</v>
+        <v>4.8440299999999999E-2</v>
       </c>
       <c r="G7">
-        <v>4.7311400000000003E-2</v>
+        <v>4.4138200000000002E-2</v>
       </c>
       <c r="H7">
         <v>3.3955800000000001E-2</v>
@@ -14688,10 +14703,10 @@
         <v>5.1427199999999999E-2</v>
       </c>
       <c r="F8">
-        <v>6.4060199999999998E-2</v>
+        <v>5.4807000000000002E-2</v>
       </c>
       <c r="G8">
-        <v>6.3417600000000005E-2</v>
+        <v>5.51706E-2</v>
       </c>
       <c r="H8">
         <v>3.4819799999999998E-2</v>
@@ -14741,10 +14756,10 @@
         <v>5.9015100000000001E-2</v>
       </c>
       <c r="F9">
-        <v>0.10333100000000001</v>
+        <v>6.9972500000000007E-2</v>
       </c>
       <c r="G9">
-        <v>9.8542099999999994E-2</v>
+        <v>6.2946600000000005E-2</v>
       </c>
       <c r="H9">
         <v>3.7611499999999999E-2</v>
@@ -14794,10 +14809,10 @@
         <v>7.4892799999999995E-2</v>
       </c>
       <c r="F10">
-        <v>0.110058</v>
+        <v>8.1656300000000001E-2</v>
       </c>
       <c r="G10">
-        <v>0.107254</v>
+        <v>7.8375700000000006E-2</v>
       </c>
       <c r="H10">
         <v>3.33344E-2</v>
@@ -14847,10 +14862,10 @@
         <v>0.10503899999999999</v>
       </c>
       <c r="F11">
-        <v>0.38050099999999998</v>
+        <v>0.11716699999999999</v>
       </c>
       <c r="G11">
-        <v>0.348248</v>
+        <v>0.10743800000000001</v>
       </c>
       <c r="H11">
         <v>3.5153900000000002E-2</v>
@@ -14900,10 +14915,10 @@
         <v>0.16440199999999999</v>
       </c>
       <c r="F12">
-        <v>0.81284599999999996</v>
+        <v>0.186117</v>
       </c>
       <c r="G12">
-        <v>0.71234900000000001</v>
+        <v>0.16972799999999999</v>
       </c>
       <c r="H12">
         <v>3.4757799999999998E-2</v>
@@ -14953,10 +14968,10 @@
         <v>0.27698299999999998</v>
       </c>
       <c r="F13">
-        <v>1.72068</v>
+        <v>0.31415799999999999</v>
       </c>
       <c r="G13">
-        <v>1.7309000000000001</v>
+        <v>0.274532</v>
       </c>
       <c r="H13">
         <v>3.6814100000000002E-2</v>
@@ -15006,10 +15021,10 @@
         <v>0.50187800000000005</v>
       </c>
       <c r="F14">
-        <v>3.4536500000000001</v>
+        <v>0.59147000000000005</v>
       </c>
       <c r="G14">
-        <v>4.14879</v>
+        <v>0.50203900000000001</v>
       </c>
       <c r="H14">
         <v>4.0789100000000002E-2</v>
@@ -15059,10 +15074,10 @@
         <v>0.94858799999999999</v>
       </c>
       <c r="F15">
-        <v>3.54955</v>
+        <v>1.1223700000000001</v>
       </c>
       <c r="G15">
-        <v>4.1590800000000003</v>
+        <v>0.94964199999999999</v>
       </c>
       <c r="H15">
         <v>5.0627800000000001E-2</v>
@@ -15112,10 +15127,10 @@
         <v>1.86666</v>
       </c>
       <c r="F16">
-        <v>9.2924399999999991</v>
+        <v>2.1981199999999999</v>
       </c>
       <c r="G16">
-        <v>31.360600000000002</v>
+        <v>1.87565</v>
       </c>
       <c r="H16">
         <v>6.9173100000000001E-2</v>
@@ -15165,10 +15180,10 @@
         <v>3.8552900000000001</v>
       </c>
       <c r="F17">
-        <v>30.848700000000001</v>
+        <v>4.48604</v>
       </c>
       <c r="G17">
-        <v>153.363</v>
+        <v>3.8980100000000002</v>
       </c>
       <c r="H17">
         <v>0.11079899999999999</v>
@@ -15217,11 +15232,11 @@
       <c r="E18">
         <v>8.90578</v>
       </c>
-      <c r="F18">
-        <v>35.811700000000002</v>
+      <c r="F18" t="s">
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>116.895</v>
+        <v>9.0569000000000006</v>
       </c>
       <c r="H18">
         <v>0.21077299999999999</v>
@@ -15268,11 +15283,11 @@
       <c r="E19">
         <v>20.675899999999999</v>
       </c>
-      <c r="F19" t="s">
-        <v>19</v>
+      <c r="F19">
+        <v>24.999500000000001</v>
       </c>
       <c r="G19">
-        <v>1772.77</v>
+        <v>23.210799999999999</v>
       </c>
       <c r="H19">
         <v>0.47040599999999999</v>
@@ -15320,10 +15335,10 @@
         <v>47.713999999999999</v>
       </c>
       <c r="F20">
-        <v>223.059</v>
+        <v>65.721100000000007</v>
       </c>
       <c r="G20">
-        <v>1370.19</v>
+        <v>58.110199999999999</v>
       </c>
       <c r="H20">
         <v>1.09877</v>
@@ -15367,6 +15382,9 @@
       <c r="E21">
         <v>100.34699999999999</v>
       </c>
+      <c r="F21">
+        <v>146.58199999999999</v>
+      </c>
       <c r="H21">
         <v>2.22776</v>
       </c>
@@ -15403,6 +15421,12 @@
       <c r="E22">
         <v>204.732</v>
       </c>
+      <c r="F22">
+        <v>309.83300000000003</v>
+      </c>
+      <c r="G22">
+        <v>263.42200000000003</v>
+      </c>
       <c r="H22">
         <v>4.4586600000000001</v>
       </c>
@@ -15432,6 +15456,12 @@
       </c>
       <c r="E23">
         <v>413.73</v>
+      </c>
+      <c r="F23">
+        <v>634.101</v>
+      </c>
+      <c r="G23">
+        <v>540.91999999999996</v>
       </c>
       <c r="H23">
         <v>8.9266199999999998</v>
@@ -15462,8 +15492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE46F8-AD8E-47D3-88B8-6DDB64118792}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC40" sqref="AC40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15623,6 +15653,24 @@
       <c r="J3" s="5">
         <v>65536</v>
       </c>
+      <c r="K3">
+        <v>0.60437600000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.60206300000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.66054999999999997</v>
+      </c>
+      <c r="N3">
+        <v>1.7363999999999999</v>
+      </c>
+      <c r="O3">
+        <v>3.2707999999999999</v>
+      </c>
+      <c r="P3">
+        <v>5.0478100000000001</v>
+      </c>
       <c r="Q3">
         <v>1.97618</v>
       </c>
@@ -15703,6 +15751,24 @@
       <c r="J4" s="5">
         <v>131072</v>
       </c>
+      <c r="K4">
+        <v>0.65980799999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.68118100000000004</v>
+      </c>
+      <c r="M4">
+        <v>2.7618200000000002</v>
+      </c>
+      <c r="N4">
+        <v>3.5513599999999999</v>
+      </c>
+      <c r="O4">
+        <v>6.4506300000000003</v>
+      </c>
+      <c r="P4">
+        <v>9.8018699999999992</v>
+      </c>
       <c r="Q4">
         <v>4.1551400000000003</v>
       </c>
@@ -15783,6 +15849,24 @@
       <c r="J5" s="5">
         <v>262144</v>
       </c>
+      <c r="K5">
+        <v>2.5601600000000002</v>
+      </c>
+      <c r="L5">
+        <v>3.0676399999999999</v>
+      </c>
+      <c r="M5">
+        <v>6.3396999999999997</v>
+      </c>
+      <c r="N5">
+        <v>7.5070300000000003</v>
+      </c>
+      <c r="O5">
+        <v>11.7584</v>
+      </c>
+      <c r="P5">
+        <v>19.4129</v>
+      </c>
       <c r="Q5">
         <v>8.1216699999999999</v>
       </c>
@@ -15863,6 +15947,24 @@
       <c r="J6" s="5">
         <v>524288</v>
       </c>
+      <c r="K6">
+        <v>6.0201500000000001</v>
+      </c>
+      <c r="L6">
+        <v>6.6571699999999998</v>
+      </c>
+      <c r="M6">
+        <v>13.1143</v>
+      </c>
+      <c r="N6">
+        <v>13.882400000000001</v>
+      </c>
+      <c r="O6">
+        <v>24.1157</v>
+      </c>
+      <c r="P6">
+        <v>38.618499999999997</v>
+      </c>
       <c r="Q6">
         <v>15.920999999999999</v>
       </c>
@@ -15942,6 +16044,24 @@
       </c>
       <c r="J7" s="5">
         <v>1048576</v>
+      </c>
+      <c r="K7">
+        <v>12.5006</v>
+      </c>
+      <c r="L7">
+        <v>13.8186</v>
+      </c>
+      <c r="M7">
+        <v>25.369800000000001</v>
+      </c>
+      <c r="N7">
+        <v>28.823599999999999</v>
+      </c>
+      <c r="O7">
+        <v>48.435699999999997</v>
+      </c>
+      <c r="P7">
+        <v>77.007599999999996</v>
       </c>
       <c r="Q7">
         <v>31.650400000000001</v>
@@ -18302,27 +18422,27 @@
       </c>
       <c r="B39">
         <f>K3/B3</f>
-        <v>0</v>
+        <v>2.9137226164763965</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:H39" si="12">L3/C3</f>
-        <v>0</v>
+        <v>2.2489708859719246</v>
       </c>
       <c r="D39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.7298677491161449</v>
       </c>
       <c r="E39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.1996186423113593</v>
       </c>
       <c r="F39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2411961141469336</v>
       </c>
       <c r="G39">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.0283290043290043</v>
       </c>
       <c r="H39">
         <f t="shared" si="12"/>
@@ -18333,27 +18453,27 @@
       </c>
       <c r="K39">
         <f>K4/B4</f>
-        <v>0</v>
+        <v>2.35785501404404</v>
       </c>
       <c r="L39">
         <f t="shared" ref="L39:Q39" si="13">L4/C4</f>
-        <v>0</v>
+        <v>1.7484381176301484</v>
       </c>
       <c r="M39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.8090010545552202</v>
       </c>
       <c r="N39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.3073966631816107</v>
       </c>
       <c r="O39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.2888757904832313</v>
       </c>
       <c r="P39">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0218914103476999</v>
       </c>
       <c r="Q39">
         <f t="shared" si="13"/>
@@ -18364,27 +18484,27 @@
       </c>
       <c r="T39">
         <f>K5/B5</f>
-        <v>0</v>
+        <v>6.298025593970018</v>
       </c>
       <c r="U39">
         <f t="shared" ref="U39:Z39" si="14">L5/C5</f>
-        <v>0</v>
+        <v>1.7791774688404411</v>
       </c>
       <c r="V39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.2032661316948228</v>
       </c>
       <c r="W39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.4496981658214794</v>
       </c>
       <c r="X39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.203306678237448</v>
       </c>
       <c r="Y39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.0258240771076188</v>
       </c>
       <c r="Z39">
         <f t="shared" si="14"/>
@@ -19764,27 +19884,27 @@
       </c>
       <c r="B59">
         <f>K6/B6</f>
-        <v>0</v>
+        <v>2.863737988773666</v>
       </c>
       <c r="C59">
         <f t="shared" ref="C59:H59" si="56">L6/C6</f>
-        <v>0</v>
+        <v>2.057724228102658</v>
       </c>
       <c r="D59">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2.3759468513173938</v>
       </c>
       <c r="E59">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.3734751422211229</v>
       </c>
       <c r="F59">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.2509830163818771</v>
       </c>
       <c r="G59">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.0267164004509006</v>
       </c>
       <c r="H59">
         <f t="shared" si="56"/>
@@ -19795,27 +19915,27 @@
       </c>
       <c r="K59">
         <f>K7/B7</f>
-        <v>0</v>
+        <v>3.1286071108574975</v>
       </c>
       <c r="L59">
         <f t="shared" ref="L59:Q59" si="57">L7/C7</f>
-        <v>0</v>
+        <v>2.2095972113401237</v>
       </c>
       <c r="M59">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2.3436737861207599</v>
       </c>
       <c r="N59">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.4418504604641158</v>
       </c>
       <c r="O59">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.2630633308820844</v>
       </c>
       <c r="P59">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.0283173314460454</v>
       </c>
       <c r="Q59">
         <f t="shared" si="57"/>
